--- a/natmiOut/OldD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5005017356379</v>
+        <v>85.78116200000001</v>
       </c>
       <c r="H2">
-        <v>21.5005017356379</v>
+        <v>257.343486</v>
       </c>
       <c r="I2">
-        <v>0.2849512647231748</v>
+        <v>0.6103818382160713</v>
       </c>
       <c r="J2">
-        <v>0.2849512647231748</v>
+        <v>0.6103818382160713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.6071730673953</v>
+        <v>28.80691533333333</v>
       </c>
       <c r="N2">
-        <v>11.6071730673953</v>
+        <v>86.42074599999999</v>
       </c>
       <c r="O2">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="P2">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="Q2">
-        <v>249.5600446813821</v>
+        <v>2471.090670928951</v>
       </c>
       <c r="R2">
-        <v>249.5600446813821</v>
+        <v>22239.81603836056</v>
       </c>
       <c r="S2">
-        <v>0.2694928447926305</v>
+        <v>0.5948375900433185</v>
       </c>
       <c r="T2">
-        <v>0.2694928447926305</v>
+        <v>0.5948375900433185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5005017356379</v>
+        <v>85.78116200000001</v>
       </c>
       <c r="H3">
-        <v>21.5005017356379</v>
+        <v>257.343486</v>
       </c>
       <c r="I3">
-        <v>0.2849512647231748</v>
+        <v>0.6103818382160713</v>
       </c>
       <c r="J3">
-        <v>0.2849512647231748</v>
+        <v>0.6103818382160713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.665800814193667</v>
+        <v>0.75278</v>
       </c>
       <c r="N3">
-        <v>0.665800814193667</v>
+        <v>2.25834</v>
       </c>
       <c r="O3">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="P3">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="Q3">
-        <v>14.31505156116006</v>
+        <v>64.57434313036001</v>
       </c>
       <c r="R3">
-        <v>14.31505156116006</v>
+        <v>581.1690881732401</v>
       </c>
       <c r="S3">
-        <v>0.01545841993054434</v>
+        <v>0.01554424817275273</v>
       </c>
       <c r="T3">
-        <v>0.01545841993054434</v>
+        <v>0.01554424817275273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.947634440282</v>
+        <v>11.01836233333333</v>
       </c>
       <c r="H4">
-        <v>10.947634440282</v>
+        <v>33.055087</v>
       </c>
       <c r="I4">
-        <v>0.1450916038073001</v>
+        <v>0.07840192529859551</v>
       </c>
       <c r="J4">
-        <v>0.1450916038073001</v>
+        <v>0.07840192529859551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6071730673953</v>
+        <v>28.80691533333333</v>
       </c>
       <c r="N4">
-        <v>11.6071730673953</v>
+        <v>86.42074599999999</v>
       </c>
       <c r="O4">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="P4">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="Q4">
-        <v>127.0710876269304</v>
+        <v>317.4050308483224</v>
       </c>
       <c r="R4">
-        <v>127.0710876269304</v>
+        <v>2856.645277634902</v>
       </c>
       <c r="S4">
-        <v>0.1372204791003144</v>
+        <v>0.07640530792278233</v>
       </c>
       <c r="T4">
-        <v>0.1372204791003144</v>
+        <v>0.07640530792278233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.947634440282</v>
+        <v>11.01836233333333</v>
       </c>
       <c r="H5">
-        <v>10.947634440282</v>
+        <v>33.055087</v>
       </c>
       <c r="I5">
-        <v>0.1450916038073001</v>
+        <v>0.07840192529859551</v>
       </c>
       <c r="J5">
-        <v>0.1450916038073001</v>
+        <v>0.07840192529859551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.665800814193667</v>
+        <v>0.75278</v>
       </c>
       <c r="N5">
-        <v>0.665800814193667</v>
+        <v>2.25834</v>
       </c>
       <c r="O5">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="P5">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="Q5">
-        <v>7.288943923834386</v>
+        <v>8.294402797286667</v>
       </c>
       <c r="R5">
-        <v>7.288943923834386</v>
+        <v>74.64962517558</v>
       </c>
       <c r="S5">
-        <v>0.00787112470698572</v>
+        <v>0.001996617375813167</v>
       </c>
       <c r="T5">
-        <v>0.00787112470698572</v>
+        <v>0.001996617375813167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.0051233719023</v>
+        <v>43.73736033333333</v>
       </c>
       <c r="H6">
-        <v>43.0051233719023</v>
+        <v>131.212081</v>
       </c>
       <c r="I6">
-        <v>0.5699571314695251</v>
+        <v>0.3112162364853332</v>
       </c>
       <c r="J6">
-        <v>0.5699571314695251</v>
+        <v>0.3112162364853332</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.6071730673953</v>
+        <v>28.80691533333333</v>
       </c>
       <c r="N6">
-        <v>11.6071730673953</v>
+        <v>86.42074599999999</v>
       </c>
       <c r="O6">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="P6">
-        <v>0.9457506533772998</v>
+        <v>0.974533567023909</v>
       </c>
       <c r="Q6">
-        <v>499.1679097623565</v>
+        <v>1259.938436025825</v>
       </c>
       <c r="R6">
-        <v>499.1679097623565</v>
+        <v>11339.44592423243</v>
       </c>
       <c r="S6">
-        <v>0.5390373294843549</v>
+        <v>0.3032906690578082</v>
       </c>
       <c r="T6">
-        <v>0.5390373294843549</v>
+        <v>0.3032906690578082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.0051233719023</v>
+        <v>43.73736033333333</v>
       </c>
       <c r="H7">
-        <v>43.0051233719023</v>
+        <v>131.212081</v>
       </c>
       <c r="I7">
-        <v>0.5699571314695251</v>
+        <v>0.3112162364853332</v>
       </c>
       <c r="J7">
-        <v>0.5699571314695251</v>
+        <v>0.3112162364853332</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.665800814193667</v>
+        <v>0.75278</v>
       </c>
       <c r="N7">
-        <v>0.665800814193667</v>
+        <v>2.25834</v>
       </c>
       <c r="O7">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="P7">
-        <v>0.05424934662270027</v>
+        <v>0.02546643297609089</v>
       </c>
       <c r="Q7">
-        <v>28.63284615551165</v>
+        <v>32.92461011172666</v>
       </c>
       <c r="R7">
-        <v>28.63284615551165</v>
+        <v>296.3214910055401</v>
       </c>
       <c r="S7">
-        <v>0.03091980198517022</v>
+        <v>0.007925567427524989</v>
       </c>
       <c r="T7">
-        <v>0.03091980198517022</v>
+        <v>0.007925567427524989</v>
       </c>
     </row>
   </sheetData>
